--- a/dataanalysis/data/predictions/1400/07221442_1447.xlsx
+++ b/dataanalysis/data/predictions/1400/07221442_1447.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="156">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-22</t>
   </si>
   <si>
@@ -479,12 +482,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -842,13 +839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA79"/>
+  <dimension ref="A1:AB79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,19 +927,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>-0.41</v>
@@ -960,7 +960,7 @@
         <v>54226.91</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -980,8 +980,23 @@
       <c r="P2">
         <v>-0.47</v>
       </c>
+      <c r="Q2">
+        <v>-3.26</v>
+      </c>
+      <c r="R2">
+        <v>5.03</v>
+      </c>
+      <c r="S2">
+        <v>3.07</v>
+      </c>
       <c r="V2" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -989,22 +1004,25 @@
       <c r="Z2">
         <v>3.90739917755127</v>
       </c>
-      <c r="AA2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1022,7 +1040,7 @@
         <v>121309.04</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -1042,8 +1060,23 @@
       <c r="P3">
         <v>-0.45</v>
       </c>
+      <c r="Q3">
+        <v>-0.77</v>
+      </c>
+      <c r="R3">
+        <v>25.56</v>
+      </c>
+      <c r="S3">
+        <v>8.859999999999999</v>
+      </c>
       <c r="V3" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1051,22 +1084,25 @@
       <c r="Z3">
         <v>7.067619800567627</v>
       </c>
-      <c r="AA3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300046</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>-1.36</v>
@@ -1084,7 +1120,7 @@
         <v>111057.15</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -1104,8 +1140,23 @@
       <c r="P4">
         <v>-0.21</v>
       </c>
+      <c r="Q4">
+        <v>-1.26</v>
+      </c>
+      <c r="R4">
+        <v>41.59</v>
+      </c>
+      <c r="S4">
+        <v>0.27</v>
+      </c>
       <c r="V4" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1113,22 +1164,25 @@
       <c r="Z4">
         <v>1.630291700363159</v>
       </c>
-      <c r="AA4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>-7.36</v>
@@ -1146,7 +1200,7 @@
         <v>117629.21</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -1166,8 +1220,23 @@
       <c r="P5">
         <v>-1.13</v>
       </c>
+      <c r="Q5">
+        <v>-1.11</v>
+      </c>
+      <c r="R5">
+        <v>6.36</v>
+      </c>
+      <c r="S5">
+        <v>1.11</v>
+      </c>
       <c r="V5" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -1175,22 +1244,25 @@
       <c r="Z5">
         <v>5.162785053253174</v>
       </c>
-      <c r="AA5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300086</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>4.47</v>
@@ -1208,7 +1280,7 @@
         <v>63453.21</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1228,8 +1300,23 @@
       <c r="P6">
         <v>-0.45</v>
       </c>
+      <c r="Q6">
+        <v>-3.96</v>
+      </c>
+      <c r="R6">
+        <v>6.61</v>
+      </c>
+      <c r="S6">
+        <v>0.92</v>
+      </c>
       <c r="V6" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1237,22 +1324,25 @@
       <c r="Z6">
         <v>1.419219732284546</v>
       </c>
-      <c r="AA6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300095</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>19.98</v>
@@ -1270,7 +1360,7 @@
         <v>109136.73</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1290,8 +1380,23 @@
       <c r="P7">
         <v>6.93</v>
       </c>
+      <c r="Q7">
+        <v>-11.78</v>
+      </c>
+      <c r="R7">
+        <v>12.49</v>
+      </c>
+      <c r="S7">
+        <v>-1.89</v>
+      </c>
       <c r="V7" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1299,22 +1404,25 @@
       <c r="Z7">
         <v>11.97036457061768</v>
       </c>
-      <c r="AA7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300195</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-0.24</v>
@@ -1332,7 +1440,7 @@
         <v>47539.02</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1352,8 +1460,23 @@
       <c r="P8">
         <v>-1.48</v>
       </c>
+      <c r="Q8">
+        <v>-3.86</v>
+      </c>
+      <c r="R8">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="S8">
+        <v>-1.32</v>
+      </c>
       <c r="V8" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1361,22 +1484,25 @@
       <c r="Z8">
         <v>1.300762057304382</v>
       </c>
-      <c r="AA8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300199</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0.85</v>
@@ -1394,7 +1520,7 @@
         <v>170769.55</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K9">
         <v>15</v>
@@ -1414,8 +1540,23 @@
       <c r="P9">
         <v>-0.11</v>
       </c>
+      <c r="Q9">
+        <v>-1.64</v>
+      </c>
+      <c r="R9">
+        <v>19.44</v>
+      </c>
+      <c r="S9">
+        <v>2.53</v>
+      </c>
       <c r="V9" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1423,22 +1564,25 @@
       <c r="Z9">
         <v>2.982855081558228</v>
       </c>
-      <c r="AA9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300283</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>-2.59</v>
@@ -1456,7 +1600,7 @@
         <v>54171.46</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1476,8 +1620,23 @@
       <c r="P10">
         <v>-1.04</v>
       </c>
+      <c r="Q10">
+        <v>-4.45</v>
+      </c>
+      <c r="R10">
+        <v>7.8</v>
+      </c>
+      <c r="S10">
+        <v>-1.39</v>
+      </c>
       <c r="V10" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1485,22 +1644,25 @@
       <c r="Z10">
         <v>1.675027847290039</v>
       </c>
-      <c r="AA10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300291</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1518,7 +1680,7 @@
         <v>21632.89</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1538,8 +1700,23 @@
       <c r="P11">
         <v>-0.08</v>
       </c>
+      <c r="Q11">
+        <v>-2.74</v>
+      </c>
+      <c r="R11">
+        <v>6.33</v>
+      </c>
+      <c r="S11">
+        <v>2.43</v>
+      </c>
       <c r="V11" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1547,22 +1724,25 @@
       <c r="Z11">
         <v>3.652938604354858</v>
       </c>
-      <c r="AA11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300405</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>7.56</v>
@@ -1580,7 +1760,7 @@
         <v>55299.72</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1600,8 +1780,23 @@
       <c r="P12">
         <v>-1</v>
       </c>
+      <c r="Q12">
+        <v>-5.21</v>
+      </c>
+      <c r="R12">
+        <v>7.56</v>
+      </c>
+      <c r="S12">
+        <v>6.33</v>
+      </c>
       <c r="V12" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1609,22 +1804,25 @@
       <c r="Z12">
         <v>2.901694059371948</v>
       </c>
-      <c r="AA12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300414</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>1.83</v>
@@ -1642,7 +1840,7 @@
         <v>91644.25999999999</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K13">
         <v>7</v>
@@ -1662,8 +1860,23 @@
       <c r="P13">
         <v>0.31</v>
       </c>
+      <c r="Q13">
+        <v>-1.35</v>
+      </c>
+      <c r="R13">
+        <v>14.77</v>
+      </c>
+      <c r="S13">
+        <v>6.26</v>
+      </c>
       <c r="V13" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1671,22 +1884,25 @@
       <c r="Z13">
         <v>2.33134651184082</v>
       </c>
-      <c r="AA13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300436</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-4.71</v>
@@ -1704,7 +1920,7 @@
         <v>114514.32</v>
       </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K14">
         <v>14</v>
@@ -1724,8 +1940,23 @@
       <c r="P14">
         <v>-0.48</v>
       </c>
+      <c r="Q14">
+        <v>4.72</v>
+      </c>
+      <c r="R14">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="S14">
+        <v>5.4</v>
+      </c>
       <c r="V14" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1733,22 +1964,25 @@
       <c r="Z14">
         <v>4.737022876739502</v>
       </c>
-      <c r="AA14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300469</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>-0.96</v>
@@ -1766,7 +2000,7 @@
         <v>54753.13</v>
       </c>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -1786,8 +2020,23 @@
       <c r="P15">
         <v>-0.29</v>
       </c>
+      <c r="Q15">
+        <v>-0.18</v>
+      </c>
+      <c r="R15">
+        <v>45.65</v>
+      </c>
+      <c r="S15">
+        <v>0.77</v>
+      </c>
       <c r="V15" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1795,22 +2044,25 @@
       <c r="Z15">
         <v>2.485576868057251</v>
       </c>
-      <c r="AA15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300485</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>9.25</v>
@@ -1828,7 +2080,7 @@
         <v>119759.01</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1848,8 +2100,23 @@
       <c r="P16">
         <v>1.72</v>
       </c>
+      <c r="Q16">
+        <v>-4.87</v>
+      </c>
+      <c r="R16">
+        <v>16.76</v>
+      </c>
+      <c r="S16">
+        <v>-0.06</v>
+      </c>
       <c r="V16" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1857,22 +2124,25 @@
       <c r="Z16">
         <v>1.894474148750305</v>
       </c>
-      <c r="AA16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300502</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>-1.31</v>
@@ -1890,7 +2160,7 @@
         <v>952899.89</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17">
         <v>20</v>
@@ -1910,8 +2180,23 @@
       <c r="P17">
         <v>-0.36</v>
       </c>
+      <c r="Q17">
+        <v>-1.42</v>
+      </c>
+      <c r="R17">
+        <v>175.55</v>
+      </c>
+      <c r="S17">
+        <v>-0.21</v>
+      </c>
       <c r="V17" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1919,22 +2204,25 @@
       <c r="Z17">
         <v>4.425153255462646</v>
       </c>
-      <c r="AA17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300522</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-1.67</v>
@@ -1952,7 +2240,7 @@
         <v>65166.11</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -1972,8 +2260,23 @@
       <c r="P18">
         <v>-0.43</v>
       </c>
+      <c r="Q18">
+        <v>-5.12</v>
+      </c>
+      <c r="R18">
+        <v>16.28</v>
+      </c>
+      <c r="S18">
+        <v>-1.09</v>
+      </c>
       <c r="V18" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1981,22 +2284,25 @@
       <c r="Z18">
         <v>1.662414789199829</v>
       </c>
-      <c r="AA18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300527</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>9.67</v>
@@ -2014,7 +2320,7 @@
         <v>153009.47</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19">
         <v>16</v>
@@ -2034,8 +2340,23 @@
       <c r="P19">
         <v>1.47</v>
       </c>
+      <c r="Q19">
+        <v>-7.12</v>
+      </c>
+      <c r="R19">
+        <v>12.06</v>
+      </c>
+      <c r="S19">
+        <v>-0.66</v>
+      </c>
       <c r="V19" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2043,22 +2364,25 @@
       <c r="Z19">
         <v>1.098201632499695</v>
       </c>
-      <c r="AA19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300533</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>-2.97</v>
@@ -2076,7 +2400,7 @@
         <v>60396.52</v>
       </c>
       <c r="J20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K20">
         <v>20</v>
@@ -2096,8 +2420,23 @@
       <c r="P20">
         <v>-1.75</v>
       </c>
+      <c r="Q20">
+        <v>0.38</v>
+      </c>
+      <c r="R20">
+        <v>37.3</v>
+      </c>
+      <c r="S20">
+        <v>2.81</v>
+      </c>
       <c r="V20" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2105,22 +2444,25 @@
       <c r="Z20">
         <v>4.798130035400391</v>
       </c>
-      <c r="AA20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300537</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>-1.49</v>
@@ -2138,7 +2480,7 @@
         <v>33189.06</v>
       </c>
       <c r="J21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K21">
         <v>17</v>
@@ -2158,8 +2500,23 @@
       <c r="P21">
         <v>-0.06</v>
       </c>
+      <c r="Q21">
+        <v>-2.59</v>
+      </c>
+      <c r="R21">
+        <v>25.19</v>
+      </c>
+      <c r="S21">
+        <v>0.48</v>
+      </c>
       <c r="V21" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2167,22 +2524,25 @@
       <c r="Z21">
         <v>3.914843082427979</v>
       </c>
-      <c r="AA21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300548</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>1.25</v>
@@ -2200,7 +2560,7 @@
         <v>263068.13</v>
       </c>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2220,8 +2580,23 @@
       <c r="P22">
         <v>-0.12</v>
       </c>
+      <c r="Q22">
+        <v>2.84</v>
+      </c>
+      <c r="R22">
+        <v>90.11</v>
+      </c>
+      <c r="S22">
+        <v>4.23</v>
+      </c>
       <c r="V22" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2229,22 +2604,25 @@
       <c r="Z22">
         <v>5.579151153564453</v>
       </c>
-      <c r="AA22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300581</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0.62</v>
@@ -2262,7 +2640,7 @@
         <v>196238.07</v>
       </c>
       <c r="J23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2282,8 +2660,23 @@
       <c r="P23">
         <v>0.5</v>
       </c>
+      <c r="Q23">
+        <v>-4.42</v>
+      </c>
+      <c r="R23">
+        <v>21.05</v>
+      </c>
+      <c r="S23">
+        <v>-0.38</v>
+      </c>
       <c r="V23" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>1</v>
@@ -2291,22 +2684,25 @@
       <c r="Z23">
         <v>8.738097190856934</v>
       </c>
-      <c r="AA23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300591</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>4.12</v>
@@ -2324,7 +2720,7 @@
         <v>160453.67</v>
       </c>
       <c r="J24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K24">
         <v>21</v>
@@ -2344,8 +2740,23 @@
       <c r="P24">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q24">
+        <v>-10.62</v>
+      </c>
+      <c r="R24">
+        <v>12.79</v>
+      </c>
+      <c r="S24">
+        <v>-0.7</v>
+      </c>
       <c r="V24" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2353,22 +2764,25 @@
       <c r="Z24">
         <v>2.816291332244873</v>
       </c>
-      <c r="AA24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300600</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>-0.13</v>
@@ -2386,7 +2800,7 @@
         <v>45268.66</v>
       </c>
       <c r="J25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K25">
         <v>18</v>
@@ -2406,8 +2820,23 @@
       <c r="P25">
         <v>-0.16</v>
       </c>
+      <c r="Q25">
+        <v>-6.63</v>
+      </c>
+      <c r="R25">
+        <v>15.68</v>
+      </c>
+      <c r="S25">
+        <v>-0.82</v>
+      </c>
       <c r="V25" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2415,22 +2844,25 @@
       <c r="Z25">
         <v>3.114856243133545</v>
       </c>
-      <c r="AA25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300617</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>20.01</v>
@@ -2448,7 +2880,7 @@
         <v>132644.66</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2468,8 +2900,23 @@
       <c r="P26">
         <v>-1.28</v>
       </c>
+      <c r="Q26">
+        <v>-12.59</v>
+      </c>
+      <c r="R26">
+        <v>44.74</v>
+      </c>
+      <c r="S26">
+        <v>1.5</v>
+      </c>
       <c r="V26" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2477,22 +2924,25 @@
       <c r="Z26">
         <v>16.4814395904541</v>
       </c>
-      <c r="AA26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300631</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>-6.07</v>
@@ -2510,7 +2960,7 @@
         <v>73393.19</v>
       </c>
       <c r="J27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K27">
         <v>7</v>
@@ -2530,8 +2980,23 @@
       <c r="P27">
         <v>-1.47</v>
       </c>
+      <c r="Q27">
+        <v>6.65</v>
+      </c>
+      <c r="R27">
+        <v>35</v>
+      </c>
+      <c r="S27">
+        <v>7.79</v>
+      </c>
       <c r="V27" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2539,22 +3004,25 @@
       <c r="Z27">
         <v>1.52461564540863</v>
       </c>
-      <c r="AA27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300644</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>-6.45</v>
@@ -2572,7 +3040,7 @@
         <v>72819.58</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -2592,8 +3060,23 @@
       <c r="P28">
         <v>-1.3</v>
       </c>
+      <c r="Q28">
+        <v>-4.69</v>
+      </c>
+      <c r="R28">
+        <v>33.34</v>
+      </c>
+      <c r="S28">
+        <v>-2.57</v>
+      </c>
       <c r="V28" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2601,22 +3084,25 @@
       <c r="Z28">
         <v>1.306564211845398</v>
       </c>
-      <c r="AA28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300665</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>8.960000000000001</v>
@@ -2634,7 +3120,7 @@
         <v>77849.42999999999</v>
       </c>
       <c r="J29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2654,8 +3140,23 @@
       <c r="P29">
         <v>-1.44</v>
       </c>
+      <c r="Q29">
+        <v>-11.8</v>
+      </c>
+      <c r="R29">
+        <v>11.07</v>
+      </c>
+      <c r="S29">
+        <v>-2.12</v>
+      </c>
       <c r="V29" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2663,22 +3164,25 @@
       <c r="Z29">
         <v>3.728585243225098</v>
       </c>
-      <c r="AA29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300683</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>7.07</v>
@@ -2696,7 +3200,7 @@
         <v>83773.28</v>
       </c>
       <c r="J30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2716,8 +3220,23 @@
       <c r="P30">
         <v>0.26</v>
       </c>
+      <c r="Q30">
+        <v>7.18</v>
+      </c>
+      <c r="R30">
+        <v>48.9</v>
+      </c>
+      <c r="S30">
+        <v>20.44</v>
+      </c>
       <c r="V30" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2725,22 +3244,25 @@
       <c r="Z30">
         <v>2.487473487854004</v>
       </c>
-      <c r="AA30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300697</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>2.15</v>
@@ -2758,7 +3280,7 @@
         <v>45389.93</v>
       </c>
       <c r="J31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2778,8 +3300,23 @@
       <c r="P31">
         <v>-0.19</v>
       </c>
+      <c r="Q31">
+        <v>-5.08</v>
+      </c>
+      <c r="R31">
+        <v>15.16</v>
+      </c>
+      <c r="S31">
+        <v>-0.13</v>
+      </c>
       <c r="V31" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>1</v>
@@ -2787,22 +3324,25 @@
       <c r="Z31">
         <v>4.382430553436279</v>
       </c>
-      <c r="AA31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300703</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>-5.51</v>
@@ -2820,7 +3360,7 @@
         <v>35116.51</v>
       </c>
       <c r="J32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -2840,8 +3380,23 @@
       <c r="P32">
         <v>-0.64</v>
       </c>
+      <c r="Q32">
+        <v>0.89</v>
+      </c>
+      <c r="R32">
+        <v>25.25</v>
+      </c>
+      <c r="S32">
+        <v>2.27</v>
+      </c>
       <c r="V32" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -2849,22 +3404,25 @@
       <c r="Z32">
         <v>1.294393658638</v>
       </c>
-      <c r="AA32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300722</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>2.78</v>
@@ -2882,7 +3440,7 @@
         <v>234667.6</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2902,8 +3460,23 @@
       <c r="P33">
         <v>-2.56</v>
       </c>
+      <c r="Q33">
+        <v>-8.84</v>
+      </c>
+      <c r="R33">
+        <v>42.8</v>
+      </c>
+      <c r="S33">
+        <v>1.45</v>
+      </c>
       <c r="V33" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2911,22 +3484,25 @@
       <c r="Z33">
         <v>3.448642492294312</v>
       </c>
-      <c r="AA33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300748</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-0.52</v>
@@ -2944,7 +3520,7 @@
         <v>172833.34</v>
       </c>
       <c r="J34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K34">
         <v>8</v>
@@ -2964,8 +3540,23 @@
       <c r="P34">
         <v>-0.37</v>
       </c>
+      <c r="Q34">
+        <v>-0.64</v>
+      </c>
+      <c r="R34">
+        <v>27.08</v>
+      </c>
+      <c r="S34">
+        <v>1.84</v>
+      </c>
       <c r="V34" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2973,22 +3564,25 @@
       <c r="Z34">
         <v>2.266383647918701</v>
       </c>
-      <c r="AA34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300803</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>1.86</v>
@@ -3006,7 +3600,7 @@
         <v>400881.74</v>
       </c>
       <c r="J35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K35">
         <v>18</v>
@@ -3026,8 +3620,23 @@
       <c r="P35">
         <v>-0.11</v>
       </c>
+      <c r="Q35">
+        <v>2.26</v>
+      </c>
+      <c r="R35">
+        <v>94</v>
+      </c>
+      <c r="S35">
+        <v>9.85</v>
+      </c>
       <c r="V35" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3035,22 +3644,25 @@
       <c r="Z35">
         <v>3.52589750289917</v>
       </c>
-      <c r="AA35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300835</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>3.69</v>
@@ -3068,7 +3680,7 @@
         <v>52847.66</v>
       </c>
       <c r="J36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3088,8 +3700,23 @@
       <c r="P36">
         <v>0.72</v>
       </c>
+      <c r="Q36">
+        <v>6.6</v>
+      </c>
+      <c r="R36">
+        <v>53.98</v>
+      </c>
+      <c r="S36">
+        <v>9.029999999999999</v>
+      </c>
       <c r="V36" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3097,22 +3724,25 @@
       <c r="Z36">
         <v>2.863017320632935</v>
       </c>
-      <c r="AA36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300839</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>-4.27</v>
@@ -3130,7 +3760,7 @@
         <v>27175.8</v>
       </c>
       <c r="J37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3150,8 +3780,23 @@
       <c r="P37">
         <v>-0.67</v>
       </c>
+      <c r="Q37">
+        <v>-1.73</v>
+      </c>
+      <c r="R37">
+        <v>14.12</v>
+      </c>
+      <c r="S37">
+        <v>1.66</v>
+      </c>
       <c r="V37" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3159,22 +3804,25 @@
       <c r="Z37">
         <v>3.223591566085815</v>
       </c>
-      <c r="AA37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300865</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>20.01</v>
@@ -3192,7 +3840,7 @@
         <v>43590.45</v>
       </c>
       <c r="J38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3212,8 +3860,23 @@
       <c r="P38">
         <v>-2.46</v>
       </c>
+      <c r="Q38">
+        <v>-1.19</v>
+      </c>
+      <c r="R38">
+        <v>52.62</v>
+      </c>
+      <c r="S38">
+        <v>20</v>
+      </c>
       <c r="V38" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3221,22 +3884,25 @@
       <c r="Z38">
         <v>14.66550254821777</v>
       </c>
-      <c r="AA38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>300872</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>3.87</v>
@@ -3254,7 +3920,7 @@
         <v>186964.83</v>
       </c>
       <c r="J39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K39">
         <v>27</v>
@@ -3274,8 +3940,23 @@
       <c r="P39">
         <v>1.12</v>
       </c>
+      <c r="Q39">
+        <v>-8.27</v>
+      </c>
+      <c r="R39">
+        <v>24.86</v>
+      </c>
+      <c r="S39">
+        <v>-1.47</v>
+      </c>
       <c r="V39" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>1</v>
@@ -3283,22 +3964,25 @@
       <c r="Z39">
         <v>6.710098266601562</v>
       </c>
-      <c r="AA39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>300878</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-5.76</v>
@@ -3316,7 +4000,7 @@
         <v>29405.16</v>
       </c>
       <c r="J40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -3336,8 +4020,23 @@
       <c r="P40">
         <v>0.21</v>
       </c>
+      <c r="Q40">
+        <v>-1.68</v>
+      </c>
+      <c r="R40">
+        <v>22.23</v>
+      </c>
+      <c r="S40">
+        <v>3.01</v>
+      </c>
       <c r="V40" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3345,22 +4044,25 @@
       <c r="Z40">
         <v>1.289325356483459</v>
       </c>
-      <c r="AA40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>300922</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>-0.4</v>
@@ -3378,7 +4080,7 @@
         <v>59923.09</v>
       </c>
       <c r="J41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3398,8 +4100,23 @@
       <c r="P41">
         <v>-0.62</v>
       </c>
+      <c r="Q41">
+        <v>-4.31</v>
+      </c>
+      <c r="R41">
+        <v>30.13</v>
+      </c>
+      <c r="S41">
+        <v>-0.3</v>
+      </c>
       <c r="V41" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3407,22 +4124,25 @@
       <c r="Z41">
         <v>5.268525123596191</v>
       </c>
-      <c r="AA41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301007</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>-2.63</v>
@@ -3440,7 +4160,7 @@
         <v>36217.64</v>
       </c>
       <c r="J42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -3460,8 +4180,23 @@
       <c r="P42">
         <v>-0.17</v>
       </c>
+      <c r="Q42">
+        <v>-0.67</v>
+      </c>
+      <c r="R42">
+        <v>33.08</v>
+      </c>
+      <c r="S42">
+        <v>1.41</v>
+      </c>
       <c r="V42" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>1</v>
@@ -3469,22 +4204,25 @@
       <c r="Z42">
         <v>3.88854193687439</v>
       </c>
-      <c r="AA42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301012</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>-4.23</v>
@@ -3502,7 +4240,7 @@
         <v>46097.69</v>
       </c>
       <c r="J43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -3522,8 +4260,23 @@
       <c r="P43">
         <v>0.02</v>
       </c>
+      <c r="Q43">
+        <v>-3.7</v>
+      </c>
+      <c r="R43">
+        <v>22.81</v>
+      </c>
+      <c r="S43">
+        <v>-1.3</v>
+      </c>
       <c r="V43" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3531,22 +4284,25 @@
       <c r="Z43">
         <v>-2.054099321365356</v>
       </c>
-      <c r="AA43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301038</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>19.98</v>
@@ -3564,7 +4320,7 @@
         <v>73999.86</v>
       </c>
       <c r="J44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -3584,8 +4340,23 @@
       <c r="P44">
         <v>-1.89</v>
       </c>
+      <c r="Q44">
+        <v>20.02</v>
+      </c>
+      <c r="R44">
+        <v>27.82</v>
+      </c>
+      <c r="S44">
+        <v>20.02</v>
+      </c>
       <c r="V44" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3593,22 +4364,25 @@
       <c r="Z44">
         <v>8.26132869720459</v>
       </c>
-      <c r="AA44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301120</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-3.46</v>
@@ -3626,7 +4400,7 @@
         <v>41022.34</v>
       </c>
       <c r="J45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -3646,8 +4420,23 @@
       <c r="P45">
         <v>-0.48</v>
       </c>
+      <c r="Q45">
+        <v>-4.68</v>
+      </c>
+      <c r="R45">
+        <v>12.82</v>
+      </c>
+      <c r="S45">
+        <v>1.99</v>
+      </c>
       <c r="V45" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>1</v>
@@ -3655,22 +4444,25 @@
       <c r="Z45">
         <v>2.244996786117554</v>
       </c>
-      <c r="AA45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301132</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>-2.97</v>
@@ -3688,7 +4480,7 @@
         <v>44897.04</v>
       </c>
       <c r="J46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K46">
         <v>4</v>
@@ -3708,8 +4500,23 @@
       <c r="P46">
         <v>-1.91</v>
       </c>
+      <c r="Q46">
+        <v>-1.92</v>
+      </c>
+      <c r="R46">
+        <v>36.93</v>
+      </c>
+      <c r="S46">
+        <v>-0.05</v>
+      </c>
       <c r="V46" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3717,22 +4524,25 @@
       <c r="Z46">
         <v>3.271738767623901</v>
       </c>
-      <c r="AA46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301141</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>-4.05</v>
@@ -3750,7 +4560,7 @@
         <v>74347.67</v>
       </c>
       <c r="J47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K47">
         <v>18</v>
@@ -3770,8 +4580,23 @@
       <c r="P47">
         <v>-2.82</v>
       </c>
+      <c r="Q47">
+        <v>0.82</v>
+      </c>
+      <c r="R47">
+        <v>69.56</v>
+      </c>
+      <c r="S47">
+        <v>3.4</v>
+      </c>
       <c r="V47" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3779,22 +4604,25 @@
       <c r="Z47">
         <v>4.996302604675293</v>
       </c>
-      <c r="AA47" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301161</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>20.01</v>
@@ -3812,7 +4640,7 @@
         <v>32538.52</v>
       </c>
       <c r="J48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3832,8 +4660,23 @@
       <c r="P48">
         <v>3.73</v>
       </c>
+      <c r="Q48">
+        <v>-16.05</v>
+      </c>
+      <c r="R48">
+        <v>38.48</v>
+      </c>
+      <c r="S48">
+        <v>8.359999999999999</v>
+      </c>
       <c r="V48" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
       </c>
       <c r="Y48">
         <v>1</v>
@@ -3841,22 +4684,25 @@
       <c r="Z48">
         <v>12.68385982513428</v>
       </c>
-      <c r="AA48" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301165</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>-0.85</v>
@@ -3874,7 +4720,7 @@
         <v>62170.41</v>
       </c>
       <c r="J49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K49">
         <v>5</v>
@@ -3894,8 +4740,23 @@
       <c r="P49">
         <v>-0.15</v>
       </c>
+      <c r="Q49">
+        <v>2.22</v>
+      </c>
+      <c r="R49">
+        <v>63.25</v>
+      </c>
+      <c r="S49">
+        <v>2.33</v>
+      </c>
       <c r="V49" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>1</v>
@@ -3903,22 +4764,25 @@
       <c r="Z49">
         <v>3.340302228927612</v>
       </c>
-      <c r="AA49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301183</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>-7.29</v>
@@ -3936,7 +4800,7 @@
         <v>78804.03</v>
       </c>
       <c r="J50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -3956,8 +4820,23 @@
       <c r="P50">
         <v>-1.54</v>
       </c>
+      <c r="Q50">
+        <v>-1.96</v>
+      </c>
+      <c r="R50">
+        <v>69.45</v>
+      </c>
+      <c r="S50">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="V50" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3965,22 +4844,25 @@
       <c r="Z50">
         <v>1.492245316505432</v>
       </c>
-      <c r="AA50" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301201</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>8.75</v>
@@ -3998,7 +4880,7 @@
         <v>69473.23</v>
       </c>
       <c r="J51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -4018,8 +4900,23 @@
       <c r="P51">
         <v>-1.5</v>
       </c>
+      <c r="Q51">
+        <v>-13.12</v>
+      </c>
+      <c r="R51">
+        <v>30.46</v>
+      </c>
+      <c r="S51">
+        <v>-4.24</v>
+      </c>
       <c r="V51" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -4027,22 +4924,25 @@
       <c r="Z51">
         <v>0.1181549653410912</v>
       </c>
-      <c r="AA51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301213</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>4.91</v>
@@ -4060,7 +4960,7 @@
         <v>36441.37</v>
       </c>
       <c r="J52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -4080,8 +4980,23 @@
       <c r="P52">
         <v>0.91</v>
       </c>
+      <c r="Q52">
+        <v>-4.99</v>
+      </c>
+      <c r="R52">
+        <v>60.99</v>
+      </c>
+      <c r="S52">
+        <v>0.18</v>
+      </c>
       <c r="V52" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4089,22 +5004,25 @@
       <c r="Z52">
         <v>2.547372817993164</v>
       </c>
-      <c r="AA52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301217</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>-4.97</v>
@@ -4122,7 +5040,7 @@
         <v>154608.77</v>
       </c>
       <c r="J53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K53">
         <v>12</v>
@@ -4142,8 +5060,23 @@
       <c r="P53">
         <v>-0.89</v>
       </c>
+      <c r="Q53">
+        <v>-2.45</v>
+      </c>
+      <c r="R53">
+        <v>20.16</v>
+      </c>
+      <c r="S53">
+        <v>0.4</v>
+      </c>
       <c r="V53" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4151,22 +5084,25 @@
       <c r="Z53">
         <v>2.962965726852417</v>
       </c>
-      <c r="AA53" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>301265</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>-3.27</v>
@@ -4184,7 +5120,7 @@
         <v>24920.05</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -4204,8 +5140,23 @@
       <c r="P54">
         <v>0.16</v>
       </c>
+      <c r="Q54">
+        <v>-3.92</v>
+      </c>
+      <c r="R54">
+        <v>12.35</v>
+      </c>
+      <c r="S54">
+        <v>-0.64</v>
+      </c>
       <c r="V54" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4213,22 +5164,25 @@
       <c r="Z54">
         <v>3.138819217681885</v>
       </c>
-      <c r="AA54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>301357</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>8.83</v>
@@ -4246,7 +5200,7 @@
         <v>108142.17</v>
       </c>
       <c r="J55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K55">
         <v>5</v>
@@ -4266,8 +5220,23 @@
       <c r="P55">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q55">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="R55">
+        <v>84.58</v>
+      </c>
+      <c r="S55">
+        <v>-6.39</v>
+      </c>
       <c r="V55" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -4275,22 +5244,25 @@
       <c r="Z55">
         <v>5.363505363464355</v>
       </c>
-      <c r="AA55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>301377</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>0.91</v>
@@ -4308,7 +5280,7 @@
         <v>45819.56</v>
       </c>
       <c r="J56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K56">
         <v>6</v>
@@ -4328,8 +5300,23 @@
       <c r="P56">
         <v>-0.04</v>
       </c>
+      <c r="Q56">
+        <v>4.98</v>
+      </c>
+      <c r="R56">
+        <v>48.5</v>
+      </c>
+      <c r="S56">
+        <v>6.8</v>
+      </c>
       <c r="V56" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4337,22 +5324,25 @@
       <c r="Z56">
         <v>2.830731153488159</v>
       </c>
-      <c r="AA56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>301388</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>-2.81</v>
@@ -4370,7 +5360,7 @@
         <v>32304.08</v>
       </c>
       <c r="J57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K57">
         <v>12</v>
@@ -4390,8 +5380,23 @@
       <c r="P57">
         <v>-0.88</v>
       </c>
+      <c r="Q57">
+        <v>-7.69</v>
+      </c>
+      <c r="R57">
+        <v>37.11</v>
+      </c>
+      <c r="S57">
+        <v>-5.09</v>
+      </c>
       <c r="V57" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>1</v>
@@ -4399,22 +5404,25 @@
       <c r="Z57">
         <v>5.29913330078125</v>
       </c>
-      <c r="AA57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>301389</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>-4.85</v>
@@ -4432,7 +5440,7 @@
         <v>65529.84</v>
       </c>
       <c r="J58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K58">
         <v>11</v>
@@ -4452,8 +5460,23 @@
       <c r="P58">
         <v>-0.98</v>
       </c>
+      <c r="Q58">
+        <v>0.5</v>
+      </c>
+      <c r="R58">
+        <v>32.22</v>
+      </c>
+      <c r="S58">
+        <v>0.22</v>
+      </c>
       <c r="V58" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4461,22 +5484,25 @@
       <c r="Z58">
         <v>1.779803156852722</v>
       </c>
-      <c r="AA58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>301421</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>0.15</v>
@@ -4494,7 +5520,7 @@
         <v>51728.91</v>
       </c>
       <c r="J59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K59">
         <v>22</v>
@@ -4514,8 +5540,23 @@
       <c r="P59">
         <v>0.77</v>
       </c>
+      <c r="Q59">
+        <v>1.6</v>
+      </c>
+      <c r="R59">
+        <v>77.09</v>
+      </c>
+      <c r="S59">
+        <v>2.77</v>
+      </c>
       <c r="V59" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4523,22 +5564,25 @@
       <c r="Z59">
         <v>0.2013920098543167</v>
       </c>
-      <c r="AA59" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>301511</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>-4.79</v>
@@ -4556,7 +5600,7 @@
         <v>116474.76</v>
       </c>
       <c r="J60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K60">
         <v>21</v>
@@ -4576,8 +5620,23 @@
       <c r="P60">
         <v>0.14</v>
       </c>
+      <c r="Q60">
+        <v>-3.45</v>
+      </c>
+      <c r="R60">
+        <v>27.4</v>
+      </c>
+      <c r="S60">
+        <v>-0.07000000000000001</v>
+      </c>
       <c r="V60" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4585,22 +5644,25 @@
       <c r="Z60">
         <v>7.208987236022949</v>
       </c>
-      <c r="AA60" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>301526</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>-2.78</v>
@@ -4618,7 +5680,7 @@
         <v>68873.61</v>
       </c>
       <c r="J61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K61">
         <v>11</v>
@@ -4638,8 +5700,23 @@
       <c r="P61">
         <v>-1.03</v>
       </c>
+      <c r="Q61">
+        <v>-2.24</v>
+      </c>
+      <c r="R61">
+        <v>4.94</v>
+      </c>
+      <c r="S61">
+        <v>0.82</v>
+      </c>
       <c r="V61" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4647,22 +5724,25 @@
       <c r="Z61">
         <v>4.256296634674072</v>
       </c>
-      <c r="AA61" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>301529</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>0.9399999999999999</v>
@@ -4680,7 +5760,7 @@
         <v>34707.13</v>
       </c>
       <c r="J62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -4700,8 +5780,23 @@
       <c r="P62">
         <v>1.06</v>
       </c>
+      <c r="Q62">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="R62">
+        <v>57</v>
+      </c>
+      <c r="S62">
+        <v>15.24</v>
+      </c>
       <c r="V62" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -4709,22 +5804,25 @@
       <c r="Z62">
         <v>6.926942825317383</v>
       </c>
-      <c r="AA62" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>301626</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>0.89</v>
@@ -4742,7 +5840,7 @@
         <v>38794.94</v>
       </c>
       <c r="J63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -4762,8 +5860,23 @@
       <c r="P63">
         <v>0.28</v>
       </c>
+      <c r="Q63">
+        <v>5.72</v>
+      </c>
+      <c r="R63">
+        <v>140.33</v>
+      </c>
+      <c r="S63">
+        <v>8.73</v>
+      </c>
       <c r="V63" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -4771,22 +5884,25 @@
       <c r="Z63">
         <v>2.349668025970459</v>
       </c>
-      <c r="AA63" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>688062</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>-6.63</v>
@@ -4804,7 +5920,7 @@
         <v>98854.3</v>
       </c>
       <c r="J64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K64">
         <v>14</v>
@@ -4824,8 +5940,23 @@
       <c r="P64">
         <v>-0.28</v>
       </c>
+      <c r="Q64">
+        <v>0.03</v>
+      </c>
+      <c r="R64">
+        <v>34.01</v>
+      </c>
+      <c r="S64">
+        <v>1.46</v>
+      </c>
       <c r="V64" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -4833,22 +5964,25 @@
       <c r="Z64">
         <v>4.622771739959717</v>
       </c>
-      <c r="AA64" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>688084</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>1.91</v>
@@ -4866,7 +6000,7 @@
         <v>37000.11</v>
       </c>
       <c r="J65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -4886,8 +6020,23 @@
       <c r="P65">
         <v>0.36</v>
       </c>
+      <c r="Q65">
+        <v>0.65</v>
+      </c>
+      <c r="R65">
+        <v>113.53</v>
+      </c>
+      <c r="S65">
+        <v>4.07</v>
+      </c>
       <c r="V65" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -4895,22 +6044,25 @@
       <c r="Z65">
         <v>4.448283195495605</v>
       </c>
-      <c r="AA65" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>688117</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>-4.24</v>
@@ -4928,7 +6080,7 @@
         <v>47640.6</v>
       </c>
       <c r="J66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K66">
         <v>6</v>
@@ -4948,8 +6100,23 @@
       <c r="P66">
         <v>-0.73</v>
       </c>
+      <c r="Q66">
+        <v>-1.95</v>
+      </c>
+      <c r="R66">
+        <v>41.79</v>
+      </c>
+      <c r="S66">
+        <v>2.68</v>
+      </c>
       <c r="V66" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -4957,22 +6124,25 @@
       <c r="Z66">
         <v>-0.6378186941146851</v>
       </c>
-      <c r="AA66" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>688202</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67">
         <v>1.24</v>
@@ -4990,7 +6160,7 @@
         <v>65062.66</v>
       </c>
       <c r="J67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K67">
         <v>11</v>
@@ -5010,8 +6180,23 @@
       <c r="P67">
         <v>0.9399999999999999</v>
       </c>
+      <c r="Q67">
+        <v>8.83</v>
+      </c>
+      <c r="R67">
+        <v>68.5</v>
+      </c>
+      <c r="S67">
+        <v>15.01</v>
+      </c>
       <c r="V67" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
       </c>
       <c r="Y67">
         <v>1</v>
@@ -5019,22 +6204,25 @@
       <c r="Z67">
         <v>5.688158988952637</v>
       </c>
-      <c r="AA67" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>688221</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68">
         <v>5.72</v>
@@ -5052,7 +6240,7 @@
         <v>78947.25</v>
       </c>
       <c r="J68" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K68">
         <v>12</v>
@@ -5072,8 +6260,23 @@
       <c r="P68">
         <v>0.08</v>
       </c>
+      <c r="Q68">
+        <v>-4.74</v>
+      </c>
+      <c r="R68">
+        <v>23.92</v>
+      </c>
+      <c r="S68">
+        <v>1.92</v>
+      </c>
       <c r="V68" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -5081,22 +6284,25 @@
       <c r="Z68">
         <v>1.224607706069946</v>
       </c>
-      <c r="AA68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>688222</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69">
         <v>4.23</v>
@@ -5114,7 +6320,7 @@
         <v>120651.15</v>
       </c>
       <c r="J69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -5134,8 +6340,23 @@
       <c r="P69">
         <v>-0.65</v>
       </c>
+      <c r="Q69">
+        <v>-2.8</v>
+      </c>
+      <c r="R69">
+        <v>25.35</v>
+      </c>
+      <c r="S69">
+        <v>2.8</v>
+      </c>
       <c r="V69" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -5143,22 +6364,25 @@
       <c r="Z69">
         <v>0.6237871050834656</v>
       </c>
-      <c r="AA69" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>688307</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70">
         <v>-5.4</v>
@@ -5176,7 +6400,7 @@
         <v>31852.1</v>
       </c>
       <c r="J70" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -5196,8 +6420,23 @@
       <c r="P70">
         <v>-0.24</v>
       </c>
+      <c r="Q70">
+        <v>2.66</v>
+      </c>
+      <c r="R70">
+        <v>37.9</v>
+      </c>
+      <c r="S70">
+        <v>3.1</v>
+      </c>
       <c r="V70" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -5205,22 +6444,25 @@
       <c r="Z70">
         <v>4.929478168487549</v>
       </c>
-      <c r="AA70" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>688313</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71">
         <v>4.14</v>
@@ -5238,7 +6480,7 @@
         <v>220040.78</v>
       </c>
       <c r="J71" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K71">
         <v>25</v>
@@ -5258,8 +6500,23 @@
       <c r="P71">
         <v>-0.08</v>
       </c>
+      <c r="Q71">
+        <v>4.42</v>
+      </c>
+      <c r="R71">
+        <v>59.16</v>
+      </c>
+      <c r="S71">
+        <v>7.29</v>
+      </c>
       <c r="V71" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -5267,22 +6524,25 @@
       <c r="Z71">
         <v>3.900356531143188</v>
       </c>
-      <c r="AA71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>688321</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72">
         <v>2.07</v>
@@ -5300,7 +6560,7 @@
         <v>96534.84</v>
       </c>
       <c r="J72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K72">
         <v>16</v>
@@ -5320,8 +6580,23 @@
       <c r="P72">
         <v>0.32</v>
       </c>
+      <c r="Q72">
+        <v>-3.95</v>
+      </c>
+      <c r="R72">
+        <v>36.6</v>
+      </c>
+      <c r="S72">
+        <v>0.22</v>
+      </c>
       <c r="V72" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -5329,22 +6604,25 @@
       <c r="Z72">
         <v>2.988860845565796</v>
       </c>
-      <c r="AA72" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73">
         <v>688360</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73">
         <v>-2.11</v>
@@ -5362,7 +6640,7 @@
         <v>38733.92</v>
       </c>
       <c r="J73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -5382,8 +6660,23 @@
       <c r="P73">
         <v>0.05</v>
       </c>
+      <c r="Q73">
+        <v>-4.34</v>
+      </c>
+      <c r="R73">
+        <v>23.5</v>
+      </c>
+      <c r="S73">
+        <v>-0.47</v>
+      </c>
       <c r="V73" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
       </c>
       <c r="Y73">
         <v>0</v>
@@ -5391,22 +6684,25 @@
       <c r="Z73">
         <v>2.612799882888794</v>
       </c>
-      <c r="AA73" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C74">
         <v>688499</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74">
         <v>7.08</v>
@@ -5424,7 +6720,7 @@
         <v>103388.58</v>
       </c>
       <c r="J74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K74">
         <v>26</v>
@@ -5444,8 +6740,23 @@
       <c r="P74">
         <v>0.13</v>
       </c>
+      <c r="Q74">
+        <v>-1.11</v>
+      </c>
+      <c r="R74">
+        <v>54.5</v>
+      </c>
+      <c r="S74">
+        <v>2.99</v>
+      </c>
       <c r="V74" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
       </c>
       <c r="Y74">
         <v>0</v>
@@ -5453,22 +6764,25 @@
       <c r="Z74">
         <v>4.270174980163574</v>
       </c>
-      <c r="AA74" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75">
         <v>688500</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75">
         <v>7.8</v>
@@ -5486,7 +6800,7 @@
         <v>45687.94</v>
       </c>
       <c r="J75" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -5506,8 +6820,23 @@
       <c r="P75">
         <v>0.7</v>
       </c>
+      <c r="Q75">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="R75">
+        <v>68.08</v>
+      </c>
+      <c r="S75">
+        <v>9.65</v>
+      </c>
       <c r="V75" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -5515,22 +6844,25 @@
       <c r="Z75">
         <v>2.190442085266113</v>
       </c>
-      <c r="AA75" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76">
         <v>688553</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76">
         <v>-2.87</v>
@@ -5548,7 +6880,7 @@
         <v>45539.01</v>
       </c>
       <c r="J76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K76">
         <v>4</v>
@@ -5568,8 +6900,23 @@
       <c r="P76">
         <v>0.24</v>
       </c>
+      <c r="Q76">
+        <v>-1.24</v>
+      </c>
+      <c r="R76">
+        <v>22.15</v>
+      </c>
+      <c r="S76">
+        <v>0.87</v>
+      </c>
       <c r="V76" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
       </c>
       <c r="Y76">
         <v>1</v>
@@ -5577,22 +6924,25 @@
       <c r="Z76">
         <v>2.414683103561401</v>
       </c>
-      <c r="AA76" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C77">
         <v>688573</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E77">
         <v>6.1</v>
@@ -5610,7 +6960,7 @@
         <v>45839.81</v>
       </c>
       <c r="J77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -5630,8 +6980,23 @@
       <c r="P77">
         <v>3</v>
       </c>
+      <c r="Q77">
+        <v>-4.44</v>
+      </c>
+      <c r="R77">
+        <v>32.41</v>
+      </c>
+      <c r="S77">
+        <v>-0.31</v>
+      </c>
       <c r="V77" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -5639,22 +7004,25 @@
       <c r="Z77">
         <v>3.138465404510498</v>
       </c>
-      <c r="AA77" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27">
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C78">
         <v>688668</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78">
         <v>0.35</v>
@@ -5672,7 +7040,7 @@
         <v>77006.99000000001</v>
       </c>
       <c r="J78" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K78">
         <v>4</v>
@@ -5692,8 +7060,23 @@
       <c r="P78">
         <v>0.34</v>
       </c>
+      <c r="Q78">
+        <v>-0.87</v>
+      </c>
+      <c r="R78">
+        <v>79.2</v>
+      </c>
+      <c r="S78">
+        <v>1.2</v>
+      </c>
       <c r="V78" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -5701,22 +7084,25 @@
       <c r="Z78">
         <v>3.848183155059814</v>
       </c>
-      <c r="AA78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C79">
         <v>688799</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79">
         <v>-4.87</v>
@@ -5734,7 +7120,7 @@
         <v>44124.34</v>
       </c>
       <c r="J79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K79">
         <v>10</v>
@@ -5754,8 +7140,23 @@
       <c r="P79">
         <v>-0.34</v>
       </c>
+      <c r="Q79">
+        <v>-3.66</v>
+      </c>
+      <c r="R79">
+        <v>59.49</v>
+      </c>
+      <c r="S79">
+        <v>2.18</v>
+      </c>
       <c r="V79" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
       </c>
       <c r="Y79">
         <v>0</v>
@@ -5763,8 +7164,11 @@
       <c r="Z79">
         <v>5.546639919281006</v>
       </c>
-      <c r="AA79" t="s">
-        <v>155</v>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
